--- a/data/fmps/pfmc/data/PFMC_SalmonFMP_stocks.xlsx
+++ b/data/fmps/pfmc/data/PFMC_SalmonFMP_stocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/fmps/pfmc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF9563A-6FE9-C240-98AC-32D373521B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C38FF82-12D1-784A-A572-6B02904C5F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="580" windowWidth="29820" windowHeight="21380" xr2:uid="{A58AE8EC-E87F-B04A-BB35-CCEE92189B70}"/>
+    <workbookView xWindow="6020" yWindow="500" windowWidth="29820" windowHeight="20200" xr2:uid="{A58AE8EC-E87F-B04A-BB35-CCEE92189B70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -210,12 +210,6 @@
     <t>Puget Sound</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Non-target</t>
-  </si>
-  <si>
     <t>Central Valley Fall</t>
   </si>
   <si>
@@ -228,12 +222,6 @@
     <t>Far-North-Migrating Coastal</t>
   </si>
   <si>
-    <t>Non-target (PST)</t>
-  </si>
-  <si>
-    <t>PST</t>
-  </si>
-  <si>
     <t>Sacramento River Fall***</t>
   </si>
   <si>
@@ -388,6 +376,18 @@
   </si>
   <si>
     <t>ESA (endangered)</t>
+  </si>
+  <si>
+    <t>PST (non-target)</t>
+  </si>
+  <si>
+    <t>PST (target)</t>
+  </si>
+  <si>
+    <t>PFMC (target)</t>
+  </si>
+  <si>
+    <t>PFMC (non-target)</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -492,7 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -836,7 +835,7 @@
   <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -856,37 +855,34 @@
   <sheetData>
     <row r="2" spans="2:10" s="5" customFormat="1" ht="35" thickBot="1">
       <c r="B2" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>102</v>
+        <v>108</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:10" s="5" customFormat="1" ht="17" thickTop="1">
-      <c r="B3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="G3" s="9">
         <v>33</v>
       </c>
@@ -894,15 +890,15 @@
         <v>23</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:10" s="5" customFormat="1">
       <c r="B4" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G4" s="9">
         <v>34</v>
@@ -911,10 +907,10 @@
         <v>24</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:10" s="5" customFormat="1">
@@ -925,22 +921,22 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G5" s="9">
         <v>35</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="5" customFormat="1">
@@ -951,10 +947,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G6" s="9">
         <v>36</v>
@@ -963,10 +959,10 @@
         <v>25</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:10" s="5" customFormat="1">
@@ -974,13 +970,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G7" s="9">
         <v>37</v>
@@ -989,15 +985,15 @@
         <v>26</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="5" customFormat="1">
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="9"/>
       <c r="G8" s="9">
@@ -1007,24 +1003,24 @@
         <v>27</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="G9" s="9">
         <v>39</v>
@@ -1033,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:10">
@@ -1047,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G10" s="9">
         <v>40</v>
@@ -1059,10 +1055,10 @@
         <v>29</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -1073,10 +1069,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G11" s="9">
         <v>41</v>
@@ -1085,15 +1081,15 @@
         <v>30</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="9"/>
       <c r="G12" s="9">
@@ -1103,24 +1099,24 @@
         <v>31</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="9">
         <v>7</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>66</v>
+      <c r="C13" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G13" s="9">
         <v>43</v>
@@ -1129,10 +1125,10 @@
         <v>32</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -1143,10 +1139,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G14" s="9">
         <v>44</v>
@@ -1155,10 +1151,10 @@
         <v>33</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -1169,10 +1165,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G15" s="9">
         <v>45</v>
@@ -1181,10 +1177,10 @@
         <v>34</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -1195,18 +1191,18 @@
         <v>6</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>110</v>
+        <v>65</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G17" s="9">
         <v>46</v>
@@ -1215,10 +1211,10 @@
         <v>35</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -1229,10 +1225,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G18" s="6">
         <v>47</v>
@@ -1241,10 +1237,10 @@
         <v>36</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -1255,10 +1251,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G19" s="9">
         <v>48</v>
@@ -1267,10 +1263,10 @@
         <v>37</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -1281,10 +1277,10 @@
         <v>9</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G20" s="6">
         <v>49</v>
@@ -1293,24 +1289,24 @@
         <v>38</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="9">
         <v>14</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>68</v>
+      <c r="C21" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G21" s="9">
         <v>50</v>
@@ -1319,24 +1315,24 @@
         <v>39</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="9">
         <v>15</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G22" s="6">
         <v>51</v>
@@ -1345,24 +1341,24 @@
         <v>40</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="9">
         <v>16</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G23" s="9">
         <v>52</v>
@@ -1371,24 +1367,24 @@
         <v>41</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="9">
         <v>17</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G24" s="6">
         <v>53</v>
@@ -1397,24 +1393,24 @@
         <v>42</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="9">
         <v>18</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>108</v>
+      <c r="C25" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G25" s="9">
         <v>54</v>
@@ -1423,24 +1419,24 @@
         <v>43</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="9">
         <v>19</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>114</v>
+      <c r="C26" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G26" s="6">
         <v>55</v>
@@ -1449,24 +1445,24 @@
         <v>44</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="9">
         <v>20</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G27" s="9">
         <v>56</v>
@@ -1475,24 +1471,24 @@
         <v>45</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="9">
         <v>21</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>67</v>
+      <c r="C28" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G28" s="6">
         <v>57</v>
@@ -1501,10 +1497,10 @@
         <v>46</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -1515,10 +1511,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G29" s="9">
         <v>58</v>
@@ -1527,10 +1523,10 @@
         <v>47</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -1541,10 +1537,10 @@
         <v>14</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G30" s="6">
         <v>59</v>
@@ -1553,15 +1549,15 @@
         <v>48</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G31" s="9">
         <v>60</v>
@@ -1570,10 +1566,10 @@
         <v>49</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -1584,10 +1580,10 @@
         <v>15</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G32" s="6">
         <v>61</v>
@@ -1596,10 +1592,10 @@
         <v>50</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:10">
@@ -1610,10 +1606,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G33" s="9">
         <v>62</v>
@@ -1622,10 +1618,10 @@
         <v>51</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -1636,10 +1632,10 @@
         <v>17</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G34" s="6">
         <v>63</v>
@@ -1648,10 +1644,10 @@
         <v>52</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:10">
@@ -1662,10 +1658,10 @@
         <v>18</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G35" s="9">
         <v>64</v>
@@ -1674,10 +1670,10 @@
         <v>53</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:10">
@@ -1688,10 +1684,10 @@
         <v>19</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G36" s="6">
         <v>65</v>
@@ -1700,10 +1696,10 @@
         <v>54</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -1714,10 +1710,10 @@
         <v>20</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G37" s="9">
         <v>66</v>
@@ -1726,10 +1722,10 @@
         <v>55</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -1740,13 +1736,13 @@
         <v>21</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="2:10">
@@ -1754,13 +1750,13 @@
         <v>31</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G39" s="6">
         <v>67</v>
@@ -1769,10 +1765,10 @@
         <v>56</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -1783,10 +1779,10 @@
         <v>22</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="6:6">
@@ -1816,24 +1812,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>38.065446000000001</v>
@@ -1844,10 +1840,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>38.024487000000001</v>
@@ -1858,10 +1854,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>41.543348000000002</v>
@@ -1875,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>41.936549999999997</v>
@@ -1886,10 +1882,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>46.683354000000001</v>
@@ -1903,7 +1899,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>46.946846000000001</v>
@@ -1914,10 +1910,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>47.349150000000002</v>
@@ -1928,10 +1924,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>47.552937999999997</v>
@@ -1942,10 +1938,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>47.751373000000001</v>
@@ -1956,10 +1952,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>47.908628</v>
@@ -1970,10 +1966,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>48.286591999999999</v>
@@ -1984,10 +1980,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>45.853982999999999</v>
@@ -1998,10 +1994,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>46.231974999999998</v>
@@ -2012,10 +2008,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>45.653331000000001</v>
@@ -2026,10 +2022,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C16">
         <v>46.200389999999999</v>
@@ -2040,10 +2036,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>48.188502</v>
@@ -2054,10 +2050,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C18">
         <v>47.339357</v>
@@ -2068,10 +2064,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C19">
         <v>48.769914</v>
@@ -2082,10 +2078,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C20">
         <v>48.370749000000004</v>
@@ -2096,10 +2092,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C21">
         <v>48.238067999999998</v>
@@ -2113,7 +2109,7 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C22">
         <v>48.020173999999997</v>
@@ -2124,10 +2120,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C23">
         <v>47.500225999999998</v>
@@ -2138,10 +2134,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C24">
         <v>47.200035999999997</v>
@@ -2152,10 +2148,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25">
         <v>47.473695999999997</v>
@@ -2166,10 +2162,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C26">
         <v>47.098664999999997</v>
@@ -2183,7 +2179,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C27">
         <v>48.426273000000002</v>
@@ -2197,7 +2193,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C28">
         <v>47.667914000000003</v>
@@ -2206,7 +2202,7 @@
         <v>-122.854968</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2214,7 +2210,7 @@
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C29">
         <v>47.845962</v>
